--- a/resultFormat.xlsx
+++ b/resultFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5CC74C-64FA-4832-9411-524C5D15C32C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951121AC-FC1E-42F3-87AB-129058C6455E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Format" sheetId="2" r:id="rId1"/>
+    <sheet name="Закупки" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702B5DF7-8DAE-4FF5-87DD-7EBCF11EC697}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/resultFormat.xlsx
+++ b/resultFormat.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951121AC-FC1E-42F3-87AB-129058C6455E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Закупки" sheetId="2" r:id="rId1"/>
@@ -43,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +57,22 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -93,34 +108,47 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -130,7 +158,28 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,15 +195,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83986B22-3B61-405F-88BB-9684BD4B813A}" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F2" xr:uid="{A0B55D26-6055-4627-910F-968D42A44530}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CFB6E728-64A8-4ADF-BDB3-A1E196E36295}" name="Столбец1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8AB05E53-751C-4C31-98E0-0B3AB86B97AF}" name="Столбец2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2D836B73-6073-464E-8A65-45719478164D}" name="Столбец3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{70556501-B593-419F-9AAA-564826304ACB}" name="Столбец4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B63A20C1-7098-4D7C-AA83-8249B66CCA46}" name="Столбец5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4338B633-B471-472B-986F-66F32040775F}" name="Столбец6" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="1" name="Столбец1" dataDxfId="0"/>
+    <tableColumn id="2" name="Столбец2" dataDxfId="1"/>
+    <tableColumn id="3" name="Столбец3" dataDxfId="5"/>
+    <tableColumn id="4" name="Столбец4" dataDxfId="4"/>
+    <tableColumn id="5" name="Столбец5" dataDxfId="3"/>
+    <tableColumn id="6" name="Столбец6" dataDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,55 +471,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702B5DF7-8DAE-4FF5-87DD-7EBCF11EC697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.06640625" customWidth="1"/>
-    <col min="2" max="2" width="30.53125" customWidth="1"/>
-    <col min="3" max="3" width="23.06640625" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
-    <col min="6" max="6" width="24.53125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="82.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>